--- a/jobs.xlsx
+++ b/jobs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
     <t>joy</t>
   </si>
@@ -27,10 +27,25 @@
     <t>finish_time</t>
   </si>
   <si>
+    <t>remark</t>
+  </si>
+  <si>
     <t>vmware安装</t>
   </si>
   <si>
     <t>centos7安装</t>
+  </si>
+  <si>
+    <t>centos7上网</t>
+  </si>
+  <si>
+    <t>/etc/sysconfig/network-scripts/ifcfg-ensxxx，修改onbroot=yes，重启</t>
+  </si>
+  <si>
+    <t>erlang安装</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/me-sa/archive/2011/07/09/erlang0004.html</t>
   </si>
   <si>
     <t>;</t>
@@ -41,10 +56,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -56,13 +71,80 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -70,13 +152,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -84,24 +183,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,90 +213,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -208,187 +223,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,80 +414,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -494,8 +435,82 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,10 +522,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -519,133 +534,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1009,7 +1024,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1017,10 +1032,11 @@
     <col min="1" max="1" width="16.875" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
     <col min="3" max="3" width="10.375"/>
+    <col min="4" max="4" width="72.875" customWidth="1"/>
     <col min="5" max="5" width="17.125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1029,11 +1045,14 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>42611</v>
@@ -1044,13 +1063,41 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>42611</v>
       </c>
       <c r="C3" s="1">
         <v>42611</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>42611</v>
+      </c>
+      <c r="C4" s="1">
+        <v>42611</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>42611</v>
+      </c>
+      <c r="C5" s="1">
+        <v>42611</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="3:3">
@@ -1064,7 +1111,7 @@
     </row>
     <row r="16" spans="6:6">
       <c r="F16" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/jobs.xlsx
+++ b/jobs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>joy</t>
   </si>
@@ -46,6 +46,48 @@
   </si>
   <si>
     <t>http://www.cnblogs.com/me-sa/archive/2011/07/09/erlang0004.html</t>
+  </si>
+  <si>
+    <t>cowboy安装</t>
+  </si>
+  <si>
+    <t>http://www.tuicool.com/articles/AJ3Qv22</t>
+  </si>
+  <si>
+    <t>centos开放端口</t>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/winner/archive/2011/11/17/2252181.html</t>
+  </si>
+  <si>
+    <t>cowboy http error</t>
+  </si>
+  <si>
+    <t>使用make run命令启动应用</t>
+  </si>
+  <si>
+    <t>navicat for mysql 11</t>
+  </si>
+  <si>
+    <t>http://download.csdn.net/detail/lxb2009/8284415</t>
+  </si>
+  <si>
+    <t>cocos2dx-js搭建</t>
+  </si>
+  <si>
+    <t>unity3d搭建</t>
+  </si>
+  <si>
+    <t>unity3d android运行</t>
+  </si>
+  <si>
+    <t>unity3d ios运行</t>
+  </si>
+  <si>
+    <t>unity3d脚本</t>
+  </si>
+  <si>
+    <t>unity3d相机跟随</t>
   </si>
   <si>
     <t>;</t>
@@ -56,10 +98,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -70,6 +112,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -77,6 +136,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -85,13 +165,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -101,6 +174,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -108,22 +188,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,75 +218,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -213,6 +225,36 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -223,187 +265,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,6 +456,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -441,26 +509,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,32 +556,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -522,10 +564,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -534,141 +576,147 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1024,12 +1072,12 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
     <col min="3" max="3" width="10.375"/>
     <col min="4" max="4" width="72.875" customWidth="1"/>
@@ -1096,25 +1144,140 @@
       <c r="C5" s="1">
         <v>42611</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="3:3">
-      <c r="C7" s="1"/>
-    </row>
-    <row r="9" spans="5:5">
-      <c r="E9" s="2"/>
-    </row>
-    <row r="12" spans="6:6">
-      <c r="F12" s="3"/>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>42611</v>
+      </c>
+      <c r="C6" s="1">
+        <v>42611</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1">
+        <v>42611</v>
+      </c>
+      <c r="C7" s="1">
+        <v>42611</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1">
+        <v>42611</v>
+      </c>
+      <c r="C8" s="1">
+        <v>42612</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1">
+        <v>42612</v>
+      </c>
+      <c r="C9" s="1">
+        <v>42612</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1">
+        <v>42612</v>
+      </c>
+      <c r="C10" s="1">
+        <v>42612</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1">
+        <v>42612</v>
+      </c>
+      <c r="C11" s="1">
+        <v>42612</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1">
+        <v>42613</v>
+      </c>
+      <c r="C12" s="1">
+        <v>42613</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1">
+        <v>42613</v>
+      </c>
+      <c r="C13" s="1">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1">
+        <v>42613</v>
+      </c>
+      <c r="C14" s="1">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="1">
+        <v>42614</v>
+      </c>
     </row>
     <row r="16" spans="6:6">
       <c r="F16" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1" display="http://www.cnblogs.com/me-sa/archive/2011/07/09/erlang0004.html" tooltip="http://www.cnblogs.com/me-sa/archive/2011/07/09/erlang0004.html"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/jobs.xlsx
+++ b/jobs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>joy</t>
   </si>
@@ -90,7 +90,76 @@
     <t>unity3d相机跟随</t>
   </si>
   <si>
+    <t>unity3d GUI UGUI</t>
+  </si>
+  <si>
     <t>;</t>
+  </si>
+  <si>
+    <t>Scala基础</t>
+  </si>
+  <si>
+    <t>Scala控制结构</t>
+  </si>
+  <si>
+    <t>unity3d NGUI</t>
+  </si>
+  <si>
+    <t>scala函数</t>
+  </si>
+  <si>
+    <t>scala数组</t>
+  </si>
+  <si>
+    <t>scala类</t>
+  </si>
+  <si>
+    <t>scala对象</t>
+  </si>
+  <si>
+    <t>akka httpserver搭建</t>
+  </si>
+  <si>
+    <t>scala包</t>
+  </si>
+  <si>
+    <t>scala继承</t>
+  </si>
+  <si>
+    <t>scala文件</t>
+  </si>
+  <si>
+    <t>scala正则表达式</t>
+  </si>
+  <si>
+    <t>scala特质</t>
+  </si>
+  <si>
+    <t>scala操作符</t>
+  </si>
+  <si>
+    <t>scala集合</t>
+  </si>
+  <si>
+    <t>scala模式匹配和样例类</t>
+  </si>
+  <si>
+    <t>scala注解</t>
+  </si>
+  <si>
+    <t>scalaXML处理</t>
+  </si>
+  <si>
+    <t>scala参数类型</t>
+  </si>
+  <si>
+    <t>scala隐式转换</t>
+  </si>
+  <si>
+    <t>unity3d 物流引擎</t>
+  </si>
+  <si>
+    <t>scala actor</t>
   </si>
 </sst>
 </file>
@@ -98,9 +167,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -128,6 +197,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,24 +233,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -165,36 +289,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -210,22 +304,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -240,15 +318,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -265,19 +334,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,163 +514,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,13 +528,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,6 +554,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,45 +625,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -564,10 +633,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,16 +645,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,112 +666,112 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1069,10 +1138,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1261,17 +1330,279 @@
         <v>42613</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="1">
         <v>42614</v>
       </c>
-    </row>
-    <row r="16" spans="6:6">
+      <c r="C15" s="1">
+        <v>42614</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1">
+        <v>42616</v>
+      </c>
+      <c r="C16" s="1">
+        <v>42617</v>
+      </c>
       <c r="F16" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="1">
+        <v>42616</v>
+      </c>
+      <c r="C17" s="1">
+        <v>42617</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="1">
+        <v>42617</v>
+      </c>
+      <c r="C18" s="1">
+        <v>42617</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="1">
+        <v>42618</v>
+      </c>
+      <c r="C19" s="1">
+        <v>42621</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1">
+        <v>42618</v>
+      </c>
+      <c r="C20" s="1">
+        <v>42618</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="1">
+        <v>42618</v>
+      </c>
+      <c r="C21" s="1">
+        <v>42618</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="1">
+        <v>42618</v>
+      </c>
+      <c r="C22" s="1">
+        <v>42618</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="1">
+        <v>42618</v>
+      </c>
+      <c r="C23" s="1">
+        <v>42618</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="1">
+        <v>42619</v>
+      </c>
+      <c r="C24" s="1">
+        <v>42619</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="1">
+        <v>42619</v>
+      </c>
+      <c r="C25" s="1">
+        <v>42619</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="1">
+        <v>42619</v>
+      </c>
+      <c r="C26" s="1">
+        <v>42619</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="1">
+        <v>42619</v>
+      </c>
+      <c r="C27" s="1">
+        <v>42619</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="1">
+        <v>42619</v>
+      </c>
+      <c r="C28" s="1">
+        <v>42619</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="1">
+        <v>42619</v>
+      </c>
+      <c r="C29" s="1">
+        <v>42619</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="1">
+        <v>42619</v>
+      </c>
+      <c r="C30" s="1">
+        <v>42619</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1">
+        <v>42619</v>
+      </c>
+      <c r="C31" s="1">
+        <v>42619</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="1">
+        <v>42619</v>
+      </c>
+      <c r="C32" s="1">
+        <v>42620</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="1">
+        <v>42620</v>
+      </c>
+      <c r="C33" s="1">
+        <v>42620</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="1">
+        <v>42620</v>
+      </c>
+      <c r="C34" s="1">
+        <v>42620</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="1">
+        <v>42620</v>
+      </c>
+      <c r="C35" s="1">
+        <v>42620</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="1">
+        <v>42620</v>
+      </c>
+      <c r="C36" s="1">
+        <v>42621</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="1">
+        <v>42620</v>
+      </c>
+      <c r="C37" s="1">
+        <v>42621</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="1">
+        <v>42621</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="1">
+        <v>42621</v>
+      </c>
+      <c r="C39" s="1">
+        <v>42621</v>
       </c>
     </row>
   </sheetData>
